--- a/Assets/Spreadsheets/Artifacts.xlsx
+++ b/Assets/Spreadsheets/Artifacts.xlsx
@@ -158,7 +158,7 @@
 레벨이 오를 때마다 {Value}% 보스 처치 시 골드, {damageMultipleGrowth}% 대미지 합계</t>
   </si>
   <si>
-    <t>bossGold</t>
+    <t>bossGoldPercent</t>
   </si>
   <si>
     <t>장인의 엘릭서</t>
@@ -292,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -303,6 +303,9 @@
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -806,7 +809,7 @@
       <c r="H8" s="1">
         <v>0.3</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="I8" s="4" t="s">
         <v>33</v>
       </c>
       <c r="J8" s="1">
